--- a/QCReinforcement2.0.0.0/QC_Management/Resources/QC_Planilla.xlsx
+++ b/QCReinforcement2.0.0.0/QC_Management/Resources/QC_Planilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unidades compartidas\QC_Ingeniería_Detalle\_Estandares\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProgramData\Autodesk\Revit\Addins\2021\QCReinforcement2.0.0.0\QC_Management\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627BDF3-4107-4B61-94E6-2E367BD7D6D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5030D854-2FF7-431E-8BB3-D215AC005D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="78" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -344,17 +344,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -437,6 +426,19 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -564,7 +566,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,94 +699,97 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="34" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -792,7 +797,232 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="QC_Tabla" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="2129">
+  <dxfs count="2152">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -11227,13 +11457,13 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="QC_Style_Segmentacion" pivot="0" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="2128"/>
-      <tableStyleElement type="headerRow" dxfId="2127"/>
+      <tableStyleElement type="wholeTable" dxfId="2151"/>
+      <tableStyleElement type="headerRow" dxfId="2150"/>
     </tableStyle>
     <tableStyle name="QC_Tabla_Dinamica" table="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="2126"/>
-      <tableStyleElement type="headerRow" dxfId="2125"/>
-      <tableStyleElement type="totalRow" dxfId="2124"/>
+      <tableStyleElement type="wholeTable" dxfId="2149"/>
+      <tableStyleElement type="headerRow" dxfId="2148"/>
+      <tableStyleElement type="totalRow" dxfId="2147"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -11838,7 +12068,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Franklin James Cabrera Bravo" refreshedDate="44146.033940740737" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Franklin James Cabrera Bravo" refreshedDate="44146.433368518519" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF1A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:AE10000" sheet="Data"/>
   </cacheSource>
@@ -11995,7 +12225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showDrill="0" enableDrill="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showDrill="0" enableDrill="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="I12:M15" firstHeaderRow="2" firstDataRow="2" firstDataCol="4"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -12248,718 +12478,718 @@
     <dataField name="PESO (kg)" fld="26" baseField="23" baseItem="0"/>
   </dataFields>
   <formats count="339">
+    <format dxfId="1813">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1812">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1811">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1810">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1809">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1808">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1807">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1806">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1805">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1804">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1803">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1802">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1801">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1800">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1799">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1798">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1797">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1796">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1795">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1794">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1793">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1792">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1791">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
     <format dxfId="1790">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1789">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1788">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1787">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1786">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1785">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1784">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1783">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1782">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1781">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1780">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1779">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1778">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1777">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1776">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1775">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1789">
+    <format dxfId="1774">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1773">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1772">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1771">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1770">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1769">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1768">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1767">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1766">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1788">
+    <format dxfId="1765">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1764">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1763">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1762">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1761">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1760">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1759">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1758">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1757">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1756">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1755">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1754">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1753">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1752">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1751">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1750">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1749">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1748">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1747">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1746">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1745">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1787">
+    <format dxfId="1744">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1743">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1786">
+    <format dxfId="1742">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1785">
+    <format dxfId="1741">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1740">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1739">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1738">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1784">
+    <format dxfId="1737">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1783">
+    <format dxfId="1736">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1782">
+    <format dxfId="1735">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1781">
+    <format dxfId="1734">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1780">
+    <format dxfId="1733">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1779">
+    <format dxfId="1732">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1778">
+    <format dxfId="1731">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1777">
+    <format dxfId="1730">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1776">
+    <format dxfId="1729">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1775">
+    <format dxfId="1728">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1774">
+    <format dxfId="1727">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1773">
+    <format dxfId="1726">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1772">
+    <format dxfId="1725">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1724">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1723">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1722">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1721">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1771">
+    <format dxfId="1720">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1719">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1770">
+    <format dxfId="1718">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1769">
+    <format dxfId="1717">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1716">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1715">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1714">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1768">
+    <format dxfId="1713">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1767">
+    <format dxfId="1712">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1766">
+    <format dxfId="1711">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1765">
+    <format dxfId="1710">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1764">
+    <format dxfId="1709">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1763">
+    <format dxfId="1708">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1762">
+    <format dxfId="1707">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1761">
+    <format dxfId="1706">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1760">
+    <format dxfId="1705">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1759">
+    <format dxfId="1704">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1758">
+    <format dxfId="1703">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1757">
+    <format dxfId="1702">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1756">
+    <format dxfId="1701">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1700">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1755">
+    <format dxfId="1699">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1698">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1697">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1754">
+    <format dxfId="1696">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1695">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1694">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1693">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1692">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1691">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1690">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1689">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1688">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1687">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1686">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1685">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1684">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1683">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1682">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1681">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1680">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1679">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1678">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1677">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1676">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1675">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1674">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1673">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1753">
+    <format dxfId="1672">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1671">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1670">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1669">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1668">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1667">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1666">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1665">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1664">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1663">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1662">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1661">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1660">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1659">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1658">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1657">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1656">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1655">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1654">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1653">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1652">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1651">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1650">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1752">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1751">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1750">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1749">
+    <format dxfId="1649">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1648">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1647">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1646">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1645">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1644">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1643">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1642">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1641">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1640">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1639">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1638">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1637">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1636">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1635">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1634">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1633">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1632">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1631">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1630">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1629">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1628">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1748">
+    <format dxfId="1627">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1747">
+    <format dxfId="1626">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1746">
+    <format dxfId="1625">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1745">
+    <format dxfId="1624">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1744">
+    <format dxfId="1623">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1743">
+    <format dxfId="1622">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1742">
+    <format dxfId="1621">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1741">
+    <format dxfId="1620">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1740">
+    <format dxfId="1619">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1739">
+    <format dxfId="1618">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1738">
+    <format dxfId="1617">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1737">
+    <format dxfId="1616">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1736">
+    <format dxfId="1615">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1735">
+    <format dxfId="1614">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1734">
+    <format dxfId="1613">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1733">
+    <format dxfId="1612">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1732">
+    <format dxfId="1611">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1731">
+    <format dxfId="1610">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1730">
+    <format dxfId="1609">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1729">
+    <format dxfId="1608">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1728">
+    <format dxfId="1607">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1727">
+    <format dxfId="1606">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1726">
+    <format dxfId="1605">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1725">
+    <format dxfId="1604">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1603">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1602">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1601">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1600">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1599">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1598">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1597">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1596">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1595">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1594">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1593">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1592">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1591">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1590">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1589">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1588">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1587">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1586">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1585">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1584">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1583">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1724">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1723">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1722">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1721">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1720">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1719">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1718">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1717">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1716">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1715">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1714">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1713">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1712">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1711">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1710">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1709">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1708">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1707">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1706">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1705">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1704">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1703">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1702">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1701">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1700">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1699">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1698">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1697">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1696">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1695">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1694">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1693">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1692">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1691">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1690">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1689">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1688">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1687">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1686">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1685">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1684">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1683">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1682">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1681">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1680">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1679">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1678">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1677">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1676">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1675">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1674">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1673">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1672">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1671">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1670">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1669">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1668">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1667">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1666">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1665">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1664">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1663">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1662">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1661">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1660">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1659">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1658">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1657">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1656">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1655">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1654">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1653">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1652">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1651">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1650">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1649">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1648">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1647">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1646">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1645">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1644">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1643">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1642">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1641">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1640">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1639">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1638">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1637">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1636">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1635">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1634">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1633">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1632">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1631">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1630">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1629">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1628">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1627">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1626">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1625">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1624">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1623">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1622">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1621">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1620">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1619">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1618">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1617">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1616">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1615">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1614">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1613">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1612">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1611">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1610">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1609">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1608">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1607">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1606">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1605">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1604">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1603">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1602">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1601">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1600">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1599">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1598">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1597">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1596">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1595">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1594">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1593">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1592">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1591">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1590">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1589">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1588">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1587">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1586">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1585">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1584">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1583">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1582">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1581">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1580">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1579">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1578">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="1577">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1576">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1575">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1574">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1573">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1572">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1571">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1570">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1569">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1568">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1567">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1566">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1565">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1564">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1563">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1562">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1561">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1560">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1559">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1558">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1557">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1556">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1555">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1554">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1553">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12968,16 +13198,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1552">
+    <format dxfId="1575">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1551">
+    <format dxfId="1574">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1550">
+    <format dxfId="1573">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1549">
+    <format dxfId="1572">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -12986,13 +13216,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1548">
+    <format dxfId="1571">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1547">
+    <format dxfId="1570">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1546">
+    <format dxfId="1569">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13001,7 +13231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1545">
+    <format dxfId="1568">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13010,16 +13240,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1544">
+    <format dxfId="1567">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1543">
+    <format dxfId="1566">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1542">
+    <format dxfId="1565">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1541">
+    <format dxfId="1564">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13028,10 +13258,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1540">
+    <format dxfId="1563">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1539">
+    <format dxfId="1562">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13040,7 +13270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1538">
+    <format dxfId="1561">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13049,26 +13279,101 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1560">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1559">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1558">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1557">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1556">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1555">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1554">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1553">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1552">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1551">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1550">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1549">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1548">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1547">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1546">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1545">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1544">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1543">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1542">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1541">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1540">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1539">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1538">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
     <format dxfId="1537">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1536">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1535">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1534">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1533">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1536">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1535">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1534">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1533">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
     <format dxfId="1532">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1531">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="1530">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
@@ -13146,135 +13451,60 @@
       </pivotArea>
     </format>
     <format dxfId="1507">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1506">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="1505">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1504">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1503">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="1502">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1501">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1500">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1499">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1498">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1497">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1496">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1495">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1494">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1493">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1492">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1491">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1490">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1489">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1488">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1487">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1486">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1485">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1484">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1483">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1482">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1481">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1480">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1479">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1478">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1477">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1476">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1475">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1474">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1473">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1472">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1471">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1470">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1469">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1468">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1467">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1466">
       <pivotArea field="0" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13283,41 +13513,41 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1465">
+    <format dxfId="1488">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1464">
+    <format dxfId="1487">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1463">
+    <format dxfId="1486">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1462">
+    <format dxfId="1485">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1461">
+    <format dxfId="1484">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1460">
+    <format dxfId="1483">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1459">
+    <format dxfId="1482">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1458">
+    <format dxfId="1481">
       <pivotArea field="28" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1457">
+    <format dxfId="1480">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1456">
+    <format dxfId="1479">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1455">
+    <format dxfId="1478">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -13329,7 +13559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1454">
+    <format dxfId="1477">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="1" selected="0">
@@ -13344,7 +13574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1453">
+    <format dxfId="1476">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="0" count="1" selected="0">
@@ -13362,7 +13592,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1452">
+    <format dxfId="1475">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13379,7 +13609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="TD_REVIT" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showDrill="0" enableDrill="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="TD_REVIT" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showDrill="0" enableDrill="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="D12:E15" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -13626,718 +13856,718 @@
     <dataField name="PESO (kg)" fld="26" baseField="23" baseItem="0"/>
   </dataFields>
   <formats count="333">
+    <format dxfId="2146">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2145">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2144">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2143">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2142">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2141">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2140">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2139">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2138">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2137">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2136">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2135">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2134">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2133">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2132">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2131">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2130">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2129">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2128">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2127">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2126">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2125">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2124">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
     <format dxfId="2123">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2122">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2121">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2120">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2119">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2118">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2117">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2116">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2115">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2114">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2113">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2112">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2111">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2110">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2109">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2108">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2122">
+    <format dxfId="2107">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2106">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2105">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2104">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2103">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2102">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2101">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2100">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2099">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2121">
+    <format dxfId="2098">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2097">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2096">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2095">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2094">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2093">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2092">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2091">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2090">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2089">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2088">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2087">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2086">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2085">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2084">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2083">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2082">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2081">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2080">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2079">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2078">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2120">
+    <format dxfId="2077">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2076">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2119">
+    <format dxfId="2075">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2118">
+    <format dxfId="2074">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2073">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2072">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2071">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2117">
+    <format dxfId="2070">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2116">
+    <format dxfId="2069">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2115">
+    <format dxfId="2068">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2114">
+    <format dxfId="2067">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2113">
+    <format dxfId="2066">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2112">
+    <format dxfId="2065">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2111">
+    <format dxfId="2064">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2110">
+    <format dxfId="2063">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2109">
+    <format dxfId="2062">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2108">
+    <format dxfId="2061">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2107">
+    <format dxfId="2060">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2106">
+    <format dxfId="2059">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2105">
+    <format dxfId="2058">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2057">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2056">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2055">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2054">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2104">
+    <format dxfId="2053">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2052">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2103">
+    <format dxfId="2051">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2102">
+    <format dxfId="2050">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2049">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2048">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2047">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2101">
+    <format dxfId="2046">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2100">
+    <format dxfId="2045">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2099">
+    <format dxfId="2044">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2098">
+    <format dxfId="2043">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2097">
+    <format dxfId="2042">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2096">
+    <format dxfId="2041">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2095">
+    <format dxfId="2040">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2094">
+    <format dxfId="2039">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2093">
+    <format dxfId="2038">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2092">
+    <format dxfId="2037">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2091">
+    <format dxfId="2036">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2090">
+    <format dxfId="2035">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2089">
+    <format dxfId="2034">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2033">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2088">
+    <format dxfId="2032">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2031">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2030">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2087">
+    <format dxfId="2029">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2028">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2027">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2026">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2025">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2024">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2023">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2022">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2021">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2020">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2019">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2018">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2017">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2016">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2015">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2014">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2013">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2012">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2011">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2010">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2009">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2008">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2007">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2006">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2086">
+    <format dxfId="2005">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2004">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2003">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2002">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2001">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="2000">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1999">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1998">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1997">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1996">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1995">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1994">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1993">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1992">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1991">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1990">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1989">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1988">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1987">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1986">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1985">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1984">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1983">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2085">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2084">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2083">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2082">
+    <format dxfId="1982">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1981">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1980">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1979">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1978">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1977">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1976">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1975">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1974">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1973">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1972">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1971">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1970">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1969">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1968">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1967">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1966">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1965">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1964">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1963">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1962">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1961">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2081">
+    <format dxfId="1960">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2080">
+    <format dxfId="1959">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2079">
+    <format dxfId="1958">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2078">
+    <format dxfId="1957">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2077">
+    <format dxfId="1956">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2076">
+    <format dxfId="1955">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2075">
+    <format dxfId="1954">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2074">
+    <format dxfId="1953">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2073">
+    <format dxfId="1952">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2072">
+    <format dxfId="1951">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2071">
+    <format dxfId="1950">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2070">
+    <format dxfId="1949">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2069">
+    <format dxfId="1948">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2068">
+    <format dxfId="1947">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2067">
+    <format dxfId="1946">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2066">
+    <format dxfId="1945">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2065">
+    <format dxfId="1944">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2064">
+    <format dxfId="1943">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2063">
+    <format dxfId="1942">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2062">
+    <format dxfId="1941">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2061">
+    <format dxfId="1940">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2060">
+    <format dxfId="1939">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="2059">
+    <format dxfId="1938">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2058">
+    <format dxfId="1937">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1936">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1935">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1934">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1933">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1932">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1931">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1930">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1929">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1928">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1927">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1926">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1925">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1924">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1923">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1922">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1921">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1920">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1919">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1918">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1917">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1916">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2057">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2056">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2055">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2054">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2053">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2052">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2051">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2050">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2049">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2048">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2047">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2046">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2045">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2044">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2043">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2042">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2041">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2040">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2039">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2038">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2037">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2036">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2035">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2034">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2033">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2032">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2031">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2030">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2029">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2028">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2027">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2026">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2025">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2024">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2023">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2022">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2021">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2020">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2019">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2018">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2017">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2016">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2015">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2014">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2013">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2012">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2011">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2010">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2009">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2008">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2007">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2006">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2005">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2004">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2003">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2002">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2001">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="2000">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1999">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1998">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1997">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1996">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1995">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1994">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1993">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1992">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1991">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1990">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1989">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1988">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1987">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1986">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1985">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1984">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1983">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1982">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1981">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1980">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1979">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1978">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1977">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1976">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1975">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1974">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1973">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1972">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1971">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1970">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1969">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1968">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1967">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1966">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1965">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1964">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1963">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1962">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1961">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1960">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1959">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1958">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1957">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1956">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1955">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1954">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1953">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1952">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1951">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1950">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1949">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1948">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1947">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1946">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1945">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1944">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1943">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1942">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1941">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1940">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1939">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1938">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1937">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1936">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1935">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1934">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1933">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1932">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1931">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1930">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1929">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1928">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1927">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1926">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1925">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1924">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1923">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1922">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1921">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1920">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1919">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1918">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1917">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1916">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1915">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1914">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1913">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1912">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1911">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="1910">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1909">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1908">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1907">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1906">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1905">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1904">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1903">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1902">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1901">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1900">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1899">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1898">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1897">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1896">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1895">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1894">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1893">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1892">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1891">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1890">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1889">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1888">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1887">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1886">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14346,16 +14576,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1885">
+    <format dxfId="1908">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1884">
+    <format dxfId="1907">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1883">
+    <format dxfId="1906">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1882">
+    <format dxfId="1905">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14364,13 +14594,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1881">
+    <format dxfId="1904">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1880">
+    <format dxfId="1903">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1879">
+    <format dxfId="1902">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14379,7 +14609,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1878">
+    <format dxfId="1901">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14388,16 +14618,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1877">
+    <format dxfId="1900">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1876">
+    <format dxfId="1899">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1875">
+    <format dxfId="1898">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1874">
+    <format dxfId="1897">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14406,10 +14636,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1873">
+    <format dxfId="1896">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="1872">
+    <format dxfId="1895">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14418,7 +14648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1871">
+    <format dxfId="1894">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -14427,26 +14657,101 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1893">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1892">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1891">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1890">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1889">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1888">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1887">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1886">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1885">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1884">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1883">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1882">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1881">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1880">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1879">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1878">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1877">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1876">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1875">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1874">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1873">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1872">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1871">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
     <format dxfId="1870">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1869">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1868">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1867">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1866">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1869">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1868">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1867">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1866">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
     <format dxfId="1865">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1864">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="1863">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
@@ -14524,135 +14829,60 @@
       </pivotArea>
     </format>
     <format dxfId="1840">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1839">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="1838">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1837">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1836">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="1835">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1834">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1833">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1832">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1831">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1830">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1829">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1828">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1827">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1826">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1825">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1824">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1823">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1822">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1821">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1820">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1819">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1818">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1817">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1816">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1815">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1814">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1813">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1812">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1811">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1810">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1809">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1808">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1807">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1806">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1805">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1804">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1803">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1802">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1801">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1800">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1799">
       <pivotArea field="0" grandRow="1" outline="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -14661,32 +14891,32 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1798">
+    <format dxfId="1821">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1797">
+    <format dxfId="1820">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1796">
+    <format dxfId="1819">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1795">
+    <format dxfId="1818">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1794">
+    <format dxfId="1817">
       <pivotArea field="27" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1793">
+    <format dxfId="1816">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="27" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1792">
+    <format dxfId="1815">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1791">
+    <format dxfId="1814">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -14703,7 +14933,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TD_REVIT" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showDrill="0" enableDrill="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TD_REVIT" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" showDrill="0" enableDrill="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A3:Z6" firstHeaderRow="1" firstDataRow="2" firstDataCol="21"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -15010,214 +15240,214 @@
     <dataField name="LONGxPIEZA" fld="25" subtotal="max" baseField="20" baseItem="0"/>
     <dataField name="PESO (kg)" fld="26" baseField="23" baseItem="0"/>
   </dataFields>
-  <formats count="390">
+  <formats count="412">
+    <format dxfId="1474">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1473">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1472">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1471">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="1470">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1469">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="1468">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
+    <format dxfId="1467">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
+    </format>
+    <format dxfId="1466">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="1465">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="1464">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="1463">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
+    <format dxfId="1462">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
+    <format dxfId="1461">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
+    </format>
+    <format dxfId="1460">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
+    </format>
+    <format dxfId="1459">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
+    </format>
+    <format dxfId="1458">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
+    </format>
+    <format dxfId="1457">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1456">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1455">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="1454">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1453">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="1452">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
     <format dxfId="1451">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
     <format dxfId="1450">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
     <format dxfId="1449">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="1448">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="1447">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
+    <format dxfId="1446">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
+    <format dxfId="1445">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
+    </format>
+    <format dxfId="1444">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
+    </format>
+    <format dxfId="1443">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
+    </format>
+    <format dxfId="1442">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
+    </format>
+    <format dxfId="1441">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1440">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1439">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1448">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="1447">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="1446">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="1445">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
-    </format>
-    <format dxfId="1444">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
-    </format>
-    <format dxfId="1443">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
-    </format>
-    <format dxfId="1442">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
-    </format>
-    <format dxfId="1441">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
-    </format>
-    <format dxfId="1440">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
-    </format>
-    <format dxfId="1439">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
-    </format>
     <format dxfId="1438">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
-    </format>
-    <format dxfId="1437">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
-    </format>
-    <format dxfId="1436">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
-    </format>
-    <format dxfId="1435">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
-    </format>
-    <format dxfId="1434">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1433">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1432">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="1431">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="1430">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="1429">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
-    </format>
-    <format dxfId="1428">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
-    </format>
-    <format dxfId="1427">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
-    </format>
-    <format dxfId="1426">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
-    </format>
-    <format dxfId="1425">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
-    </format>
-    <format dxfId="1424">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
-    </format>
-    <format dxfId="1423">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
-    </format>
-    <format dxfId="1422">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
-    </format>
-    <format dxfId="1421">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
-    </format>
-    <format dxfId="1420">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
-    </format>
-    <format dxfId="1419">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
-    </format>
-    <format dxfId="1418">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1417">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1416">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1415">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1437">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1436">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1435">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1434">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1433">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1432">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1431">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1430">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1429">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1428">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1427">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="1426">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1425">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="1424">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="1423">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
+    </format>
+    <format dxfId="1422">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="1421">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
+    <format dxfId="1420">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
+    </format>
+    <format dxfId="1419">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="1418">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="1417">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="1416">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
+    <format dxfId="1415">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
     <format dxfId="1414">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
     </format>
     <format dxfId="1413">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
     </format>
     <format dxfId="1412">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
     </format>
     <format dxfId="1411">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
     <format dxfId="1410">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1409">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1408">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1407">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1406">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1405">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1404">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="1403">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="1402">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="1401">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="1400">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
-    </format>
-    <format dxfId="1399">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="1398">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
-    </format>
-    <format dxfId="1397">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
-    </format>
-    <format dxfId="1396">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
-    </format>
-    <format dxfId="1395">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
-    </format>
-    <format dxfId="1394">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
-    </format>
-    <format dxfId="1393">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
-    </format>
-    <format dxfId="1392">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
-    </format>
-    <format dxfId="1391">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
-    </format>
-    <format dxfId="1390">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
-    </format>
-    <format dxfId="1389">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
-    </format>
-    <format dxfId="1388">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
-    </format>
-    <format dxfId="1387">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1386">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1385">
+    <format dxfId="1408">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0" selected="0"/>
@@ -15225,7 +15455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1384">
+    <format dxfId="1407">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
@@ -15234,7 +15464,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1383">
+    <format dxfId="1406">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="4">
           <reference field="0" count="0" selected="0"/>
@@ -15244,526 +15474,526 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1405">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1404">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1403">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1402">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1401">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1400">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1399">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="1398">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1397">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="1396">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="1395">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
+    </format>
+    <format dxfId="1394">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="1393">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
+    <format dxfId="1392">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
+    </format>
+    <format dxfId="1391">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="1390">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="1389">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="1388">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
+    <format dxfId="1387">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
+    <format dxfId="1386">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
+    </format>
+    <format dxfId="1385">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
+    </format>
+    <format dxfId="1384">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
+    </format>
+    <format dxfId="1383">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
+    </format>
     <format dxfId="1382">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1381">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1381">
+    <format dxfId="1380">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1380">
+    <format dxfId="1379">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1379">
+    <format dxfId="1378">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1378">
+    <format dxfId="1377">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1377">
+    <format dxfId="1376">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1376">
+    <format dxfId="1375">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1375">
+    <format dxfId="1374">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="1374">
+    <format dxfId="1373">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="1373">
+    <format dxfId="1372">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="1372">
+    <format dxfId="1371">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="1371">
+    <format dxfId="1370">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="1370">
+    <format dxfId="1369">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="1369">
+    <format dxfId="1368">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="1368">
+    <format dxfId="1367">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="1367">
+    <format dxfId="1366">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="1366">
+    <format dxfId="1365">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
     </format>
-    <format dxfId="1365">
+    <format dxfId="1364">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
     </format>
-    <format dxfId="1364">
+    <format dxfId="1363">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
     </format>
-    <format dxfId="1363">
+    <format dxfId="1362">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
     </format>
-    <format dxfId="1362">
+    <format dxfId="1361">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
     </format>
-    <format dxfId="1361">
+    <format dxfId="1360">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
     </format>
-    <format dxfId="1360">
+    <format dxfId="1359">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
-    <format dxfId="1359">
+    <format dxfId="1358">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1358">
+    <format dxfId="1357">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1357">
+    <format dxfId="1356">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1356">
+    <format dxfId="1355">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1355">
+    <format dxfId="1354">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1354">
+    <format dxfId="1353">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1353">
+    <format dxfId="1352">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1352">
+    <format dxfId="1351">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1351">
+    <format dxfId="1350">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="1350">
+    <format dxfId="1349">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="1349">
+    <format dxfId="1348">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="1348">
+    <format dxfId="1347">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="1347">
+    <format dxfId="1346">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="1346">
+    <format dxfId="1345">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="1345">
+    <format dxfId="1344">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="1344">
+    <format dxfId="1343">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="1343">
+    <format dxfId="1342">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="1342">
+    <format dxfId="1341">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
     </format>
-    <format dxfId="1341">
+    <format dxfId="1340">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
     </format>
-    <format dxfId="1340">
+    <format dxfId="1339">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
     </format>
-    <format dxfId="1339">
+    <format dxfId="1338">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
     </format>
-    <format dxfId="1338">
+    <format dxfId="1337">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
     </format>
-    <format dxfId="1337">
+    <format dxfId="1336">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
     </format>
-    <format dxfId="1336">
+    <format dxfId="1335">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
-    <format dxfId="1335">
+    <format dxfId="1334">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1334">
+    <format dxfId="1333">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1333">
+    <format dxfId="1332">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1332">
+    <format dxfId="1331">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1331">
+    <format dxfId="1330">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1330">
+    <format dxfId="1329">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1329">
+    <format dxfId="1328">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1328">
+    <format dxfId="1327">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1327">
+    <format dxfId="1326">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="1326">
+    <format dxfId="1325">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="1325">
+    <format dxfId="1324">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="1324">
+    <format dxfId="1323">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="1323">
+    <format dxfId="1322">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="1322">
+    <format dxfId="1321">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="1321">
+    <format dxfId="1320">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="1320">
+    <format dxfId="1319">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="1319">
+    <format dxfId="1318">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="1318">
+    <format dxfId="1317">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
     </format>
-    <format dxfId="1317">
+    <format dxfId="1316">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
     </format>
-    <format dxfId="1316">
+    <format dxfId="1315">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
     </format>
-    <format dxfId="1315">
+    <format dxfId="1314">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
     </format>
-    <format dxfId="1314">
+    <format dxfId="1313">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
     </format>
-    <format dxfId="1313">
+    <format dxfId="1312">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
     </format>
-    <format dxfId="1312">
+    <format dxfId="1311">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
-    <format dxfId="1311">
+    <format dxfId="1310">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1310">
+    <format dxfId="1309">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1309">
+    <format dxfId="1308">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1308">
+    <format dxfId="1307">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1307">
+    <format dxfId="1306">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1306">
+    <format dxfId="1305">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1305">
+    <format dxfId="1304">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1304">
+    <format dxfId="1303">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1303">
+    <format dxfId="1302">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="1302">
+    <format dxfId="1301">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="1301">
+    <format dxfId="1300">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="1300">
+    <format dxfId="1299">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="1299">
+    <format dxfId="1298">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="1298">
+    <format dxfId="1297">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="1297">
+    <format dxfId="1296">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="1296">
+    <format dxfId="1295">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="1295">
+    <format dxfId="1294">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="1294">
+    <format dxfId="1293">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
     </format>
-    <format dxfId="1293">
+    <format dxfId="1292">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
     </format>
-    <format dxfId="1292">
+    <format dxfId="1291">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
     </format>
-    <format dxfId="1291">
+    <format dxfId="1290">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
     </format>
-    <format dxfId="1290">
+    <format dxfId="1289">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
     </format>
-    <format dxfId="1289">
+    <format dxfId="1288">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
     </format>
-    <format dxfId="1288">
+    <format dxfId="1287">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
-    <format dxfId="1287">
+    <format dxfId="1286">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1286">
+    <format dxfId="1285">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1285">
+    <format dxfId="1284">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1284">
+    <format dxfId="1283">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1283">
+    <format dxfId="1282">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1282">
+    <format dxfId="1281">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="1281">
+    <format dxfId="1280">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1280">
+    <format dxfId="1279">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="1279">
+    <format dxfId="1278">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="1278">
+    <format dxfId="1277">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="1277">
+    <format dxfId="1276">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="1276">
+    <format dxfId="1275">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="1275">
+    <format dxfId="1274">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="1274">
+    <format dxfId="1273">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="1273">
+    <format dxfId="1272">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="1272">
+    <format dxfId="1271">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="1271">
+    <format dxfId="1270">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="1270">
+    <format dxfId="1269">
       <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
     </format>
-    <format dxfId="1269">
+    <format dxfId="1268">
       <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
     </format>
-    <format dxfId="1268">
+    <format dxfId="1267">
       <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
     </format>
-    <format dxfId="1267">
+    <format dxfId="1266">
       <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
     </format>
-    <format dxfId="1266">
+    <format dxfId="1265">
       <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
     </format>
-    <format dxfId="1265">
+    <format dxfId="1264">
       <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
     </format>
-    <format dxfId="1264">
+    <format dxfId="1263">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
-    <format dxfId="1263">
+    <format dxfId="1262">
       <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="1262">
+    <format dxfId="1261">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1261">
+    <format dxfId="1260">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1259">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1258">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1257">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="1256">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1255">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="1254">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="1253">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
+    </format>
+    <format dxfId="1252">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="1251">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
+    <format dxfId="1250">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
+    </format>
+    <format dxfId="1249">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="1248">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="1247">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="1246">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
+    <format dxfId="1245">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
+    <format dxfId="1244">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
+    </format>
+    <format dxfId="1243">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
+    </format>
+    <format dxfId="1242">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
+    </format>
+    <format dxfId="1241">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
+    </format>
+    <format dxfId="1240">
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="1239">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1260">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1259">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1258">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="1257">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="1256">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="1255">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="1254">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="1253">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="1252">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
-    </format>
-    <format dxfId="1251">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="1250">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
-    </format>
-    <format dxfId="1249">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
-    </format>
-    <format dxfId="1248">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
-    </format>
-    <format dxfId="1247">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
-    </format>
-    <format dxfId="1246">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
-    </format>
-    <format dxfId="1245">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
-    </format>
-    <format dxfId="1244">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
-    </format>
-    <format dxfId="1243">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
-    </format>
-    <format dxfId="1242">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
-    </format>
-    <format dxfId="1241">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
-    </format>
-    <format dxfId="1240">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
-    </format>
-    <format dxfId="1239">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1238">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1237">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1236">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
     <format dxfId="1235">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="1234">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="1233">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1232">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="1231">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="1230">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
-    </format>
-    <format dxfId="1229">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="1228">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
-    </format>
-    <format dxfId="1227">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
-    </format>
-    <format dxfId="1226">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
-    </format>
-    <format dxfId="1225">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
-    </format>
-    <format dxfId="1224">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
-    </format>
-    <format dxfId="1223">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
-    </format>
-    <format dxfId="1222">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
-    </format>
-    <format dxfId="1221">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
-    </format>
-    <format dxfId="1220">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
-    </format>
-    <format dxfId="1219">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
-    </format>
-    <format dxfId="1218">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
-    </format>
-    <format dxfId="1217">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1216">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1215">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1214">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1213">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="1212">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="1211">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="1210">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1209">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -15773,16 +16003,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1208">
+    <format dxfId="1231">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1207">
+    <format dxfId="1230">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1206">
+    <format dxfId="1229">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1205">
+    <format dxfId="1228">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -15792,83 +16022,83 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1204">
+    <format dxfId="1227">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1203">
+    <format dxfId="1226">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1202">
+    <format dxfId="1225">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1201">
+    <format dxfId="1224">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1200">
+    <format dxfId="1223">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1199">
+    <format dxfId="1222">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1198">
+    <format dxfId="1221">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1197">
+    <format dxfId="1220">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1196">
+    <format dxfId="1219">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1195">
+    <format dxfId="1218">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1194">
+    <format dxfId="1217">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1193">
+    <format dxfId="1216">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1192">
+    <format dxfId="1215">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15877,7 +16107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1191">
+    <format dxfId="1214">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -15886,245 +16116,245 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1190">
+    <format dxfId="1213">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1189">
+    <format dxfId="1212">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1188">
+    <format dxfId="1211">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1187">
+    <format dxfId="1210">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1186">
+    <format dxfId="1209">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1185">
+    <format dxfId="1208">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1184">
+    <format dxfId="1207">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1183">
+    <format dxfId="1206">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1182">
+    <format dxfId="1205">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="15" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1181">
+    <format dxfId="1204">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="16" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1180">
+    <format dxfId="1203">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="17" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1179">
+    <format dxfId="1202">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="18" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1178">
+    <format dxfId="1201">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="19" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1177">
+    <format dxfId="1200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="20" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1176">
+    <format dxfId="1199">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1175">
+    <format dxfId="1198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1174">
+    <format dxfId="1197">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1173">
+    <format dxfId="1196">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1172">
+    <format dxfId="1195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1171">
+    <format dxfId="1194">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1170">
+    <format dxfId="1193">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1169">
+    <format dxfId="1192">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1168">
+    <format dxfId="1191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1167">
+    <format dxfId="1190">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1166">
+    <format dxfId="1189">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1165">
+    <format dxfId="1188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1164">
+    <format dxfId="1187">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1163">
+    <format dxfId="1186">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1162">
+    <format dxfId="1185">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="15" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1161">
+    <format dxfId="1184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="16" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1160">
+    <format dxfId="1183">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="17" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1159">
+    <format dxfId="1182">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="18" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1158">
+    <format dxfId="1181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="19" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1157">
+    <format dxfId="1180">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="20" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1156">
+    <format dxfId="1179">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16133,7 +16363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1155">
+    <format dxfId="1178">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16142,30 +16372,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1154">
+    <format dxfId="1177">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="1153">
+    <format dxfId="1176">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1152">
+    <format dxfId="1175">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1151">
+    <format dxfId="1174">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1150">
+    <format dxfId="1173">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1149">
+    <format dxfId="1172">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16175,10 +16405,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1148">
+    <format dxfId="1171">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1147">
+    <format dxfId="1170">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16188,7 +16418,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1146">
+    <format dxfId="1169">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -16198,40 +16428,116 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1145">
+    <format dxfId="1168">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="19" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1144">
+    <format dxfId="1167">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="18" count="0"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="1166">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
+    </format>
+    <format dxfId="1165">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1164">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="1163">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1162">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1161">
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="1160">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1159">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1158">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="1157">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="1156">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="1155">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="1154">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="1153">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="1152">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="1151">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
+    </format>
+    <format dxfId="1150">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="1149">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
+    <format dxfId="1148">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
+    </format>
+    <format dxfId="1147">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="1146">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="1145">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="1144">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
     <format dxfId="1143">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
+    <format dxfId="1142">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
+    </format>
+    <format dxfId="1141">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
+    </format>
+    <format dxfId="1140">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
+    </format>
+    <format dxfId="1139">
       <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
     </format>
-    <format dxfId="1142">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1141">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="1140">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1139">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
     <format dxfId="1138">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="1137">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="1136">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
@@ -16310,100 +16616,24 @@
       </pivotArea>
     </format>
     <format dxfId="1113">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1112">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="1111">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1110">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1109">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="1108">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="1107">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
-    </format>
-    <format dxfId="1106">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
-    </format>
-    <format dxfId="1105">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
-    </format>
-    <format dxfId="1104">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="1103">
-      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
-    </format>
-    <format dxfId="1102">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
-    </format>
-    <format dxfId="1101">
-      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
-    </format>
-    <format dxfId="1100">
-      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
-    </format>
-    <format dxfId="1099">
-      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
-    </format>
-    <format dxfId="1098">
-      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
-    </format>
-    <format dxfId="1097">
-      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
-    </format>
-    <format dxfId="1096">
-      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
-    </format>
-    <format dxfId="1095">
-      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
-    </format>
-    <format dxfId="1094">
-      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
-    </format>
-    <format dxfId="1093">
-      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
-    </format>
-    <format dxfId="1092">
-      <pivotArea field="23" type="button" dataOnly="0" labelOnly="1" outline="0"/>
-    </format>
-    <format dxfId="1091">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1090">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1089">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="1088">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1087">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1086">
-      <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="1085">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1084">
       <pivotArea field="0" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16412,43 +16642,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1083">
+    <format dxfId="1106">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1082">
+    <format dxfId="1105">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1081">
+    <format dxfId="1104">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1080">
+    <format dxfId="1103">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1079">
+    <format dxfId="1102">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1078">
+    <format dxfId="1101">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1077">
+    <format dxfId="1100">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1076">
+    <format dxfId="1099">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1075">
+    <format dxfId="1098">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1074">
+    <format dxfId="1097">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1073">
+    <format dxfId="1096">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1072">
+    <format dxfId="1095">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1071">
+    <format dxfId="1094">
       <pivotArea field="0" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16457,7 +16687,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1070">
+    <format dxfId="1093">
       <pivotArea field="0" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16466,7 +16696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1069">
+    <format dxfId="1092">
       <pivotArea field="0" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16475,7 +16705,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1068">
+    <format dxfId="1091">
       <pivotArea field="0" grandRow="1" outline="0" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16484,21 +16714,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1067">
+    <format dxfId="1090">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1066">
+    <format dxfId="1089">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1065">
+    <format dxfId="1088">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16507,7 +16737,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1064">
+    <format dxfId="1087">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5">
@@ -16520,7 +16750,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1063">
+    <format dxfId="1086">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16529,11 +16759,87 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1062">
+    <format dxfId="1085">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="14" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="14"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="15" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="15"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="16" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="16"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="17" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="17"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="18" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="18"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="19" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="19"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="20" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="20"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="5">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -16892,22 +17198,22 @@
     <row r="6" spans="2:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.6"/>
     <row r="7" spans="2:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.6"/>
     <row r="8" spans="2:15" s="13" customFormat="1" ht="20.5" x14ac:dyDescent="0.75">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
     </row>
     <row r="11" spans="2:15" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C11" s="43" t="s">
@@ -17060,9 +17366,9 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" topLeftCell="C1" colorId="9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" colorId="9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6328125" defaultRowHeight="14" x14ac:dyDescent="0.6"/>
@@ -17168,7 +17474,7 @@
       <c r="S3" s="55"/>
       <c r="T3" s="55"/>
       <c r="U3" s="55"/>
-      <c r="V3" s="77" t="s">
+      <c r="V3" s="74" t="s">
         <v>32</v>
       </c>
       <c r="W3" s="56"/>
@@ -17177,82 +17483,82 @@
       <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="S4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="66" t="s">
+      <c r="X4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="82" t="s">
+      <c r="Y4" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="82" t="s">
         <v>33</v>
       </c>
     </row>
@@ -17260,70 +17566,70 @@
       <c r="A5" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="O5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="71" t="s">
+      <c r="P5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="71" t="s">
+      <c r="Q5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="71" t="s">
+      <c r="R5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="74" t="s">
+      <c r="S5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="74" t="s">
+      <c r="T5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="71" t="s">
+      <c r="U5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="72"/>
+      <c r="V5" s="71"/>
       <c r="W5" s="51"/>
       <c r="X5" s="52"/>
-      <c r="Y5" s="83"/>
+      <c r="Y5" s="79"/>
       <c r="Z5" s="53"/>
     </row>
     <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.6">
@@ -17350,10 +17656,10 @@
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="78"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="75"/>
       <c r="X6" s="58"/>
-      <c r="Y6" s="84"/>
+      <c r="Y6" s="80"/>
       <c r="Z6" s="59"/>
     </row>
     <row r="7" spans="1:26" ht="14.75" x14ac:dyDescent="0.75">
@@ -18214,7 +18520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView defaultGridColor="0" colorId="22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
